--- a/extractor/16DaySept.xlsx
+++ b/extractor/16DaySept.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51a3ec21316aeaae/Documents/python/16day/extractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F368A852-417C-498F-9015-FE0B04BC6BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89265B71-6F67-4E79-9492-FAABDAB834BB}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F368A852-417C-498F-9015-FE0B04BC6BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E26FF1F-6F58-490F-94C1-A5948ACE9294}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="0" windowWidth="9730" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report1694179558854" sheetId="1" r:id="rId1"/>
@@ -1103,10 +1103,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1406,7 +1402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="G254" sqref="G254"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7804,7 +7802,7 @@
         <v>20</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H253" s="4">
         <v>45201</v>

--- a/extractor/16DaySept.xlsx
+++ b/extractor/16DaySept.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51a3ec21316aeaae/Documents/python/16day/extractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F368A852-417C-498F-9015-FE0B04BC6BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E26FF1F-6F58-490F-94C1-A5948ACE9294}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F368A852-417C-498F-9015-FE0B04BC6BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF04F35D-2CDA-449F-A8AA-DDE2985D34A0}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report1694179558854" sheetId="1" r:id="rId1"/>
@@ -1103,6 +1103,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1402,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="G254" sqref="G254"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/extractor/16DaySept.xlsx
+++ b/extractor/16DaySept.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51a3ec21316aeaae/Documents/python/16day/extractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F368A852-417C-498F-9015-FE0B04BC6BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF04F35D-2CDA-449F-A8AA-DDE2985D34A0}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{F368A852-417C-498F-9015-FE0B04BC6BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41DE4D1D-7810-419E-AA08-867FB8AF7A0D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1406,16 +1406,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A191" sqref="A182:XFD191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="47.1796875" customWidth="1"/>
-    <col min="4" max="4" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
@@ -2778,7 +2778,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>39</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>39</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>39</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>39</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>130</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>130</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>130</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>130</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>39</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>39</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>20</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>130</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>39</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>39</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>130</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>130</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>39</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>39</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>55</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>130</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>130</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>24</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>54</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>39</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>161</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>39</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>161</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>161</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>161</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>39</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>39</v>
       </c>
